--- a/Cmf.Custom.IoT/KLASpectraFilm/MasterData/KLASpectraFilm2.xlsx
+++ b/Cmf.Custom.IoT/KLASpectraFilm/MasterData/KLASpectraFilm2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMF\Projects\AMSOSRAM\Cmf.Custom.IoT\KLASpectraFilm\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED4B6FF-92FB-4F53-B676-CC738F0AF9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7246FC73-4594-436C-977D-4EC02B6E589F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="634">
   <si>
     <t>Tab Name</t>
   </si>
@@ -1945,9 +1945,6 @@
     <t>KLASpectraFilm\AbortJob_01_ExecuteControlJobAbort.json</t>
   </si>
   <si>
-    <t>PortId</t>
-  </si>
-  <si>
     <t>The Load Port Number. (Load ports are numbered from left (=1) to right)</t>
   </si>
   <si>
@@ -1981,104 +1978,65 @@
     <t>{"variableType":"StatusVariable","$id":"50300"}</t>
   </si>
   <si>
-    <t>{"reportId":"100","$id":"50300"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"17","$id":"3009"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"17","$id":"3002"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"17","$id":"3041"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"25","$id":"1611"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"25","$id":"1612"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"25","$id":"1613"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"25","$id":"1614"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"25","$id":"1615"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"25","$id":"1616"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"25","$id":"1617"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"25","$id":"1620"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"25","$id":"1621"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"25","$id":"1622"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"25","$id":"1623"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"25","$id":"1625"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"26","$id":"1612"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"26","$id":"1626"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"26","$id":"1628"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"31","$id":"1612"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"31","$id":"1635"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"999","$id":"10002"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"999","$id":"10003"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"999","$id":"10004"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"28","$id":"1612"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"28","$id":"1629"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"28","$id":"1630"}</t>
-  </si>
-  <si>
-    <t>{"reportId":"28","$id":"1631"}</t>
-  </si>
-  <si>
     <t>When a Carrier-related event occurs</t>
   </si>
   <si>
     <t>{"variableType":"DataVariable","$id":"3002"}</t>
   </si>
   <si>
-    <t>{"reportId":"1","$id":"3041"}</t>
+    <t>{"reportId":"100","$id":"1"}</t>
+  </si>
+  <si>
+    <t>{"reportId":"17","$id":"1"}</t>
+  </si>
+  <si>
+    <t>{"reportId":"25","$id":"1"}</t>
+  </si>
+  <si>
+    <t>{"reportId":"26","$id":"1"}</t>
+  </si>
+  <si>
+    <t>{"reportId":"31","$id":"1"}</t>
+  </si>
+  <si>
+    <t>{"reportId":"999","$id":"1"}</t>
+  </si>
+  <si>
+    <t>{"reportId":"28","$id":"1"}</t>
+  </si>
+  <si>
+    <t>{"reportId":"1","$id":"1"}</t>
+  </si>
+  <si>
+    <t>CarrierUnclamped</t>
+  </si>
+  <si>
+    <t>A 200mm carrier was unclamped on a 200mm open cassette or SMIF load station</t>
+  </si>
+  <si>
+    <t>{"variableType":"StatusVariable","$id":"105"}</t>
+  </si>
+  <si>
+    <t>Current Control state 1: Equipment Offline 4: OnlineLocal 5: OnlineRemote</t>
+  </si>
+  <si>
+    <t>ControlState</t>
+  </si>
+  <si>
+    <t>{"reportId":"2","$id":"1"}</t>
+  </si>
+  <si>
+    <t>MaterialRemoveEvent</t>
+  </si>
+  <si>
+    <t>This GEM-required event indicates that a Carrier has been unloaded from the Equipment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2092,6 +2050,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2116,477 +2086,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4269,18 +3783,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4358,16 +3872,16 @@
       <c r="A5" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>50120</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>435</v>
       </c>
     </row>
@@ -4392,16 +3906,16 @@
       <c r="A7" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="C7" t="s">
-        <v>610</v>
-      </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>2023</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>435</v>
       </c>
     </row>
@@ -4409,16 +3923,16 @@
       <c r="A8" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>804</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>435</v>
       </c>
     </row>
@@ -4443,16 +3957,16 @@
       <c r="A10" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>808</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="7" t="s">
         <v>435</v>
       </c>
     </row>
@@ -4460,33 +3974,33 @@
       <c r="A11" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <v>810</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="7" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>50125</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>435</v>
       </c>
     </row>
@@ -4541,12 +4055,39 @@
         <v>435</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D16" s="7">
+        <v>50123</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C17" t="s">
+        <v>633</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2099</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -4637,17 +4178,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
-      <formula>"KLASpectraFilmDriver"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4657,21 +4187,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="103.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4710,7 +4240,7 @@
         <v>494</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C2" t="s">
         <v>530</v>
@@ -4731,7 +4261,7 @@
         <v>450</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -4740,10 +4270,10 @@
         <v>494</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D3" s="1">
         <v>3009</v>
@@ -4761,7 +4291,7 @@
         <v>446</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -5222,6 +4752,9 @@
       <c r="B19" s="1" t="s">
         <v>507</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="D19" s="1">
         <v>10002</v>
       </c>
@@ -5249,7 +4782,9 @@
       <c r="B20" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="D20" s="1">
         <v>10003</v>
       </c>
@@ -5277,7 +4812,9 @@
       <c r="B21" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>509</v>
+      </c>
       <c r="D21" s="1">
         <v>10004</v>
       </c>
@@ -5396,7 +4933,7 @@
         <v>430</v>
       </c>
       <c r="C25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D25" s="1">
         <v>3041</v>
@@ -5414,18 +4951,19 @@
         <v>450</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>607</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C26" t="s">
-        <v>645</v>
+        <v>616</v>
       </c>
       <c r="D26" s="1">
         <v>3002</v>
@@ -5443,18 +4981,38 @@
         <v>448</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B27" t="s">
+        <v>630</v>
+      </c>
+      <c r="C27" t="s">
+        <v>629</v>
+      </c>
+      <c r="D27" s="1">
+        <v>105</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -5590,17 +5148,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"KLASpectraFilmDriver"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
 </file>
@@ -5609,17 +5156,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -5647,13 +5194,13 @@
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -5661,16 +5208,16 @@
         <v>494</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -5678,10 +5225,10 @@
         <v>494</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C4" t="s">
-        <v>612</v>
+        <v>430</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -5695,16 +5242,16 @@
         <v>494</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C5" t="s">
-        <v>430</v>
+        <v>611</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -5721,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -5738,7 +5285,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -5755,7 +5302,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -5772,7 +5319,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -5789,7 +5336,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -5806,7 +5353,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -5823,7 +5370,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -5840,7 +5387,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -5857,7 +5404,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -5874,7 +5421,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -5891,7 +5438,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -5908,7 +5455,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -5925,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -5942,7 +5489,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -5959,7 +5506,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -5976,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -5993,7 +5540,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -6010,7 +5557,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -6021,13 +5568,13 @@
         <v>503</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -6044,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -6061,7 +5608,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -6078,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -6095,7 +5642,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -6112,7 +5659,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -6129,7 +5676,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -6146,7 +5693,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -6163,7 +5710,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -6180,7 +5727,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -6191,49 +5738,99 @@
         <v>501</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>605</v>
+        <v>430</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C35" t="s">
+        <v>630</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C36" t="s">
+        <v>630</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C37" t="s">
+        <v>630</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C38" t="s">
+        <v>430</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
@@ -6502,50 +6099,7 @@
       <c r="E77" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"KLASpectraFilmDriver"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{AF9CAA4A-AD90-470A-92DA-A1F05BFB6B02}">
-            <xm:f>ISERROR(VLOOKUP($C1,AutomationProperty!$B:$B,1,FALSE))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C1:C1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{C2CF954A-25CD-4633-807A-920E5671C3AA}">
-            <xm:f>ISERROR(VLOOKUP($B1,AutomationEvent!$B:$B,1,FALSE))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6967,13 +6521,13 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
@@ -7009,7 +6563,7 @@
         <v>495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>423</v>
@@ -7037,7 +6591,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7100,6 +6654,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"KLASpectraFilmDriver"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
 </file>
@@ -7108,8 +6667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7142,7 +6701,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -7162,7 +6721,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -7182,7 +6741,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -7202,7 +6761,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -7222,7 +6781,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -7242,7 +6801,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -7262,7 +6821,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -7282,7 +6841,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -7302,7 +6861,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -7322,7 +6881,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -7342,7 +6901,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -7362,7 +6921,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -7382,7 +6941,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -7402,7 +6961,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -7422,7 +6981,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -7442,7 +7001,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -7462,7 +7021,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -7482,7 +7041,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -7502,7 +7061,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -7522,7 +7081,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -7542,7 +7101,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -7562,7 +7121,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -7582,7 +7141,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -7602,7 +7161,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -7622,7 +7181,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -7642,7 +7201,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -7662,7 +7221,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B28" s="3" t="s">
